--- a/data/outputs/OR/58.xlsx
+++ b/data/outputs/OR/58.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ262"/>
+  <dimension ref="A1:BR262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -915,6 +920,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1134,6 +1140,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1341,6 +1348,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1548,6 +1556,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>2687622</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1755,6 +1768,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1966,6 +1980,11 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>4940487</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2161,6 +2180,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2368,6 +2388,11 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>3511637</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2579,6 +2604,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2794,6 +2820,11 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>3962118</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3001,6 +3032,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3208,6 +3240,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3411,6 +3444,11 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>10839593</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3626,6 +3664,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3841,6 +3880,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>2796306</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4036,6 +4080,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4243,6 +4288,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4458,6 +4504,11 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>13936488</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4657,6 +4708,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4864,6 +4916,11 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>4289050</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5071,6 +5128,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5278,6 +5336,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5481,6 +5540,11 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>5061719</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5700,6 +5764,11 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>3879237</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5915,6 +5984,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6126,6 +6196,11 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr">
+        <is>
+          <t>3437351</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6333,6 +6408,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6540,6 +6616,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6747,6 +6824,11 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>4305968</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6946,6 +7028,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7161,6 +7244,11 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t>6020206</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7376,6 +7464,11 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr">
+        <is>
+          <t>9135202</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7583,6 +7676,11 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr">
+        <is>
+          <t>2828576</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7782,6 +7880,11 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>3728058</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7981,6 +8084,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8196,6 +8300,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8395,6 +8500,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8594,6 +8700,11 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr">
+        <is>
+          <t>3774419</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8801,6 +8912,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9018,6 +9130,11 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>6974983</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9217,6 +9334,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9424,6 +9542,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9639,6 +9758,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9854,6 +9974,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10065,6 +10186,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10268,6 +10390,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10479,6 +10602,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10702,6 +10826,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10913,6 +11038,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11120,6 +11246,11 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr">
+        <is>
+          <t>10823373</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11323,6 +11454,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11530,6 +11662,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11737,6 +11870,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11944,6 +12078,11 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr">
+        <is>
+          <t>3849239</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12159,6 +12298,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12382,6 +12522,11 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr">
+        <is>
+          <t>3447047</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12597,6 +12742,11 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr">
+        <is>
+          <t>2625940</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12804,6 +12954,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13015,6 +13166,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13234,6 +13386,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13445,6 +13598,11 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr">
+        <is>
+          <t>3006348</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13652,6 +13810,11 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr">
+        <is>
+          <t>2818365</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13867,6 +14030,11 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr">
+        <is>
+          <t>30786604</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14082,6 +14250,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14289,6 +14458,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14496,6 +14666,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14711,6 +14882,11 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr">
+        <is>
+          <t>2985141</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14926,6 +15102,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15133,6 +15310,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15348,6 +15526,11 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr">
+        <is>
+          <t>4904924</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15565,6 +15748,11 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr">
+        <is>
+          <t>4399106</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15772,6 +15960,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15971,6 +16160,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16170,6 +16360,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16369,6 +16560,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16584,6 +16776,11 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr">
+        <is>
+          <t>4268204</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16791,6 +16988,11 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr">
+        <is>
+          <t>3926762</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16990,6 +17192,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -17197,6 +17400,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -17404,6 +17608,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17611,6 +17816,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17822,6 +18028,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -18037,6 +18244,11 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr">
+        <is>
+          <t>4643062</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -18244,6 +18456,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -18451,6 +18664,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18658,6 +18872,11 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr">
+        <is>
+          <t>1971274</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18865,6 +19084,11 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr">
+        <is>
+          <t>44541594</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -19084,6 +19308,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -19291,6 +19516,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -19490,6 +19716,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19697,6 +19924,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19892,6 +20120,11 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr">
+        <is>
+          <t>4378182</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -20103,6 +20336,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -20310,6 +20544,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -20525,6 +20760,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20732,6 +20968,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20943,6 +21180,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -21142,6 +21380,11 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr">
+        <is>
+          <t>4492591</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -21353,6 +21596,11 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr">
+        <is>
+          <t>4492578</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -21564,6 +21812,11 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr">
+        <is>
+          <t>4106226</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21763,6 +22016,7 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -21970,6 +22224,7 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -22169,6 +22424,7 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -22388,6 +22644,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22595,6 +22852,7 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22798,6 +23056,11 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr">
+        <is>
+          <t>14742381</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -23017,6 +23280,11 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr">
+        <is>
+          <t>5804924</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -23220,6 +23488,7 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -23419,6 +23688,7 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23630,6 +23900,7 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -23837,6 +24108,7 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -24044,6 +24316,7 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -24259,6 +24532,7 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -24458,6 +24732,7 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -24665,6 +24940,7 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -24876,6 +25152,11 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr">
+        <is>
+          <t>4568744</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -25083,6 +25364,11 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr">
+        <is>
+          <t>4511763</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -25286,6 +25572,7 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -25501,6 +25788,11 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr">
+        <is>
+          <t>3702613</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -25708,6 +26000,11 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr">
+        <is>
+          <t>3043070</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -25915,6 +26212,7 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -26126,6 +26424,7 @@
         </is>
       </c>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -26345,6 +26644,7 @@
         </is>
       </c>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -26548,6 +26848,11 @@
         </is>
       </c>
       <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr">
+        <is>
+          <t>2773532</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -26747,6 +27052,7 @@
         </is>
       </c>
       <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -26962,6 +27268,7 @@
         </is>
       </c>
       <c r="BQ127" t="inlineStr"/>
+      <c r="BR127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -27169,6 +27476,11 @@
         </is>
       </c>
       <c r="BQ128" t="inlineStr"/>
+      <c r="BR128" t="inlineStr">
+        <is>
+          <t>4361561</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -27376,6 +27688,7 @@
         </is>
       </c>
       <c r="BQ129" t="inlineStr"/>
+      <c r="BR129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -27579,6 +27892,7 @@
         </is>
       </c>
       <c r="BQ130" t="inlineStr"/>
+      <c r="BR130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -27786,6 +28100,7 @@
         </is>
       </c>
       <c r="BQ131" t="inlineStr"/>
+      <c r="BR131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -27989,6 +28304,11 @@
         </is>
       </c>
       <c r="BQ132" t="inlineStr"/>
+      <c r="BR132" t="inlineStr">
+        <is>
+          <t>3890389</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -28184,6 +28504,7 @@
         </is>
       </c>
       <c r="BQ133" t="inlineStr"/>
+      <c r="BR133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -28387,6 +28708,7 @@
         </is>
       </c>
       <c r="BQ134" t="inlineStr"/>
+      <c r="BR134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -28594,6 +28916,7 @@
         </is>
       </c>
       <c r="BQ135" t="inlineStr"/>
+      <c r="BR135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -28805,6 +29128,7 @@
         </is>
       </c>
       <c r="BQ136" t="inlineStr"/>
+      <c r="BR136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -29004,6 +29328,7 @@
         </is>
       </c>
       <c r="BQ137" t="inlineStr"/>
+      <c r="BR137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -29203,6 +29528,7 @@
         </is>
       </c>
       <c r="BQ138" t="inlineStr"/>
+      <c r="BR138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -29402,6 +29728,7 @@
         </is>
       </c>
       <c r="BQ139" t="inlineStr"/>
+      <c r="BR139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -29613,6 +29940,7 @@
         </is>
       </c>
       <c r="BQ140" t="inlineStr"/>
+      <c r="BR140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -29824,6 +30152,7 @@
         </is>
       </c>
       <c r="BQ141" t="inlineStr"/>
+      <c r="BR141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -30035,6 +30364,7 @@
         </is>
       </c>
       <c r="BQ142" t="inlineStr"/>
+      <c r="BR142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -30250,6 +30580,11 @@
         </is>
       </c>
       <c r="BQ143" t="inlineStr"/>
+      <c r="BR143" t="inlineStr">
+        <is>
+          <t>52647465</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -30457,6 +30792,7 @@
         </is>
       </c>
       <c r="BQ144" t="inlineStr"/>
+      <c r="BR144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -30656,6 +30992,7 @@
         </is>
       </c>
       <c r="BQ145" t="inlineStr"/>
+      <c r="BR145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -30867,6 +31204,7 @@
         </is>
       </c>
       <c r="BQ146" t="inlineStr"/>
+      <c r="BR146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -31074,6 +31412,7 @@
         </is>
       </c>
       <c r="BQ147" t="inlineStr"/>
+      <c r="BR147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -31281,6 +31620,7 @@
         </is>
       </c>
       <c r="BQ148" t="inlineStr"/>
+      <c r="BR148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -31484,6 +31824,11 @@
         </is>
       </c>
       <c r="BQ149" t="inlineStr"/>
+      <c r="BR149" t="inlineStr">
+        <is>
+          <t>44211772</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -31683,6 +32028,7 @@
         </is>
       </c>
       <c r="BQ150" t="inlineStr"/>
+      <c r="BR150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -31882,6 +32228,7 @@
         </is>
       </c>
       <c r="BQ151" t="inlineStr"/>
+      <c r="BR151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -32089,6 +32436,7 @@
         </is>
       </c>
       <c r="BQ152" t="inlineStr"/>
+      <c r="BR152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -32296,6 +32644,7 @@
         </is>
       </c>
       <c r="BQ153" t="inlineStr"/>
+      <c r="BR153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -32499,6 +32848,11 @@
         </is>
       </c>
       <c r="BQ154" t="inlineStr"/>
+      <c r="BR154" t="inlineStr">
+        <is>
+          <t>3774413</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -32698,6 +33052,11 @@
         </is>
       </c>
       <c r="BQ155" t="inlineStr"/>
+      <c r="BR155" t="inlineStr">
+        <is>
+          <t>3021206</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -32913,6 +33272,11 @@
         </is>
       </c>
       <c r="BQ156" t="inlineStr"/>
+      <c r="BR156" t="inlineStr">
+        <is>
+          <t>3042708</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -33120,6 +33484,7 @@
         </is>
       </c>
       <c r="BQ157" t="inlineStr"/>
+      <c r="BR157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -33323,6 +33688,7 @@
         </is>
       </c>
       <c r="BQ158" t="inlineStr"/>
+      <c r="BR158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -33526,6 +33892,7 @@
         </is>
       </c>
       <c r="BQ159" t="inlineStr"/>
+      <c r="BR159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -33725,6 +34092,11 @@
         </is>
       </c>
       <c r="BQ160" t="inlineStr"/>
+      <c r="BR160" t="inlineStr">
+        <is>
+          <t>6671768</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -33940,6 +34312,7 @@
         </is>
       </c>
       <c r="BQ161" t="inlineStr"/>
+      <c r="BR161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -34143,6 +34516,11 @@
         </is>
       </c>
       <c r="BQ162" t="inlineStr"/>
+      <c r="BR162" t="inlineStr">
+        <is>
+          <t>30786615</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -34350,6 +34728,7 @@
         </is>
       </c>
       <c r="BQ163" t="inlineStr"/>
+      <c r="BR163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -34557,6 +34936,7 @@
         </is>
       </c>
       <c r="BQ164" t="inlineStr"/>
+      <c r="BR164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -34764,6 +35144,7 @@
         </is>
       </c>
       <c r="BQ165" t="inlineStr"/>
+      <c r="BR165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -34959,6 +35340,7 @@
         </is>
       </c>
       <c r="BQ166" t="inlineStr"/>
+      <c r="BR166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -35158,6 +35540,7 @@
         </is>
       </c>
       <c r="BQ167" t="inlineStr"/>
+      <c r="BR167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -35369,6 +35752,11 @@
         </is>
       </c>
       <c r="BQ168" t="inlineStr"/>
+      <c r="BR168" t="inlineStr">
+        <is>
+          <t>9135218</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -35580,6 +35968,11 @@
         </is>
       </c>
       <c r="BQ169" t="inlineStr"/>
+      <c r="BR169" t="inlineStr">
+        <is>
+          <t>4755761</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -35783,6 +36176,7 @@
         </is>
       </c>
       <c r="BQ170" t="inlineStr"/>
+      <c r="BR170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -35998,6 +36392,11 @@
         </is>
       </c>
       <c r="BQ171" t="inlineStr"/>
+      <c r="BR171" t="inlineStr">
+        <is>
+          <t>15063049</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -36213,6 +36612,11 @@
         </is>
       </c>
       <c r="BQ172" t="inlineStr"/>
+      <c r="BR172" t="inlineStr">
+        <is>
+          <t>3820601</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -36424,6 +36828,7 @@
         </is>
       </c>
       <c r="BQ173" t="inlineStr"/>
+      <c r="BR173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -36631,6 +37036,7 @@
         </is>
       </c>
       <c r="BQ174" t="inlineStr"/>
+      <c r="BR174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -36826,6 +37232,7 @@
         </is>
       </c>
       <c r="BQ175" t="inlineStr"/>
+      <c r="BR175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -37037,6 +37444,7 @@
         </is>
       </c>
       <c r="BQ176" t="inlineStr"/>
+      <c r="BR176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -37244,6 +37652,7 @@
         </is>
       </c>
       <c r="BQ177" t="inlineStr"/>
+      <c r="BR177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -37451,6 +37860,11 @@
         </is>
       </c>
       <c r="BQ178" t="inlineStr"/>
+      <c r="BR178" t="inlineStr">
+        <is>
+          <t>4275558</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -37666,6 +38080,11 @@
         </is>
       </c>
       <c r="BQ179" t="inlineStr"/>
+      <c r="BR179" t="inlineStr">
+        <is>
+          <t>4657709</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -37865,6 +38284,11 @@
         </is>
       </c>
       <c r="BQ180" t="inlineStr"/>
+      <c r="BR180" t="inlineStr">
+        <is>
+          <t>4246789</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -38064,6 +38488,7 @@
         </is>
       </c>
       <c r="BQ181" t="inlineStr"/>
+      <c r="BR181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -38271,6 +38696,7 @@
         </is>
       </c>
       <c r="BQ182" t="inlineStr"/>
+      <c r="BR182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -38470,6 +38896,7 @@
         </is>
       </c>
       <c r="BQ183" t="inlineStr"/>
+      <c r="BR183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -38681,6 +39108,7 @@
         </is>
       </c>
       <c r="BQ184" t="inlineStr"/>
+      <c r="BR184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -38896,6 +39324,11 @@
         </is>
       </c>
       <c r="BQ185" t="inlineStr"/>
+      <c r="BR185" t="inlineStr">
+        <is>
+          <t>3814294</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -39111,6 +39544,7 @@
         </is>
       </c>
       <c r="BQ186" t="inlineStr"/>
+      <c r="BR186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -39310,6 +39744,11 @@
         </is>
       </c>
       <c r="BQ187" t="inlineStr"/>
+      <c r="BR187" t="inlineStr">
+        <is>
+          <t>4334028</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -39525,6 +39964,7 @@
         </is>
       </c>
       <c r="BQ188" t="inlineStr"/>
+      <c r="BR188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -39736,6 +40176,11 @@
         </is>
       </c>
       <c r="BQ189" t="inlineStr"/>
+      <c r="BR189" t="inlineStr">
+        <is>
+          <t>4513037</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -39951,6 +40396,7 @@
         </is>
       </c>
       <c r="BQ190" t="inlineStr"/>
+      <c r="BR190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -40174,6 +40620,7 @@
         </is>
       </c>
       <c r="BQ191" t="inlineStr"/>
+      <c r="BR191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -40381,6 +40828,7 @@
         </is>
       </c>
       <c r="BQ192" t="inlineStr"/>
+      <c r="BR192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -40588,6 +41036,7 @@
         </is>
       </c>
       <c r="BQ193" t="inlineStr"/>
+      <c r="BR193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -40799,6 +41248,7 @@
         </is>
       </c>
       <c r="BQ194" t="inlineStr"/>
+      <c r="BR194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -40998,6 +41448,7 @@
         </is>
       </c>
       <c r="BQ195" t="inlineStr"/>
+      <c r="BR195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -41205,6 +41656,11 @@
         </is>
       </c>
       <c r="BQ196" t="inlineStr"/>
+      <c r="BR196" t="inlineStr">
+        <is>
+          <t>4191426</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -41420,6 +41876,7 @@
         </is>
       </c>
       <c r="BQ197" t="inlineStr"/>
+      <c r="BR197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -41623,6 +42080,7 @@
         </is>
       </c>
       <c r="BQ198" t="inlineStr"/>
+      <c r="BR198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -41834,6 +42292,7 @@
         </is>
       </c>
       <c r="BQ199" t="inlineStr"/>
+      <c r="BR199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -42025,6 +42484,7 @@
         </is>
       </c>
       <c r="BQ200" t="inlineStr"/>
+      <c r="BR200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -42236,6 +42696,7 @@
         </is>
       </c>
       <c r="BQ201" t="inlineStr"/>
+      <c r="BR201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -42439,6 +42900,7 @@
         </is>
       </c>
       <c r="BQ202" t="inlineStr"/>
+      <c r="BR202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -42646,6 +43108,11 @@
         </is>
       </c>
       <c r="BQ203" t="inlineStr"/>
+      <c r="BR203" t="inlineStr">
+        <is>
+          <t>3719240</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -42857,6 +43324,7 @@
         </is>
       </c>
       <c r="BQ204" t="inlineStr"/>
+      <c r="BR204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -43056,6 +43524,7 @@
         </is>
       </c>
       <c r="BQ205" t="inlineStr"/>
+      <c r="BR205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -43263,6 +43732,11 @@
         </is>
       </c>
       <c r="BQ206" t="inlineStr"/>
+      <c r="BR206" t="inlineStr">
+        <is>
+          <t>2800464</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -43474,6 +43948,7 @@
         </is>
       </c>
       <c r="BQ207" t="inlineStr"/>
+      <c r="BR207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -43673,6 +44148,7 @@
         </is>
       </c>
       <c r="BQ208" t="inlineStr"/>
+      <c r="BR208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -43888,6 +44364,11 @@
         </is>
       </c>
       <c r="BQ209" t="inlineStr"/>
+      <c r="BR209" t="inlineStr">
+        <is>
+          <t>13954205</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -44091,6 +44572,7 @@
         </is>
       </c>
       <c r="BQ210" t="inlineStr"/>
+      <c r="BR210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -44298,6 +44780,11 @@
         </is>
       </c>
       <c r="BQ211" t="inlineStr"/>
+      <c r="BR211" t="inlineStr">
+        <is>
+          <t>4450530</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -44497,6 +44984,7 @@
         </is>
       </c>
       <c r="BQ212" t="inlineStr"/>
+      <c r="BR212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -44700,6 +45188,11 @@
         </is>
       </c>
       <c r="BQ213" t="inlineStr"/>
+      <c r="BR213" t="inlineStr">
+        <is>
+          <t>4244889</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -44915,6 +45408,7 @@
         </is>
       </c>
       <c r="BQ214" t="inlineStr"/>
+      <c r="BR214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -45126,6 +45620,7 @@
         </is>
       </c>
       <c r="BQ215" t="inlineStr"/>
+      <c r="BR215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -45329,6 +45824,7 @@
         </is>
       </c>
       <c r="BQ216" t="inlineStr"/>
+      <c r="BR216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -45528,6 +46024,11 @@
         </is>
       </c>
       <c r="BQ217" t="inlineStr"/>
+      <c r="BR217" t="inlineStr">
+        <is>
+          <t>2991376</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -45735,6 +46236,11 @@
         </is>
       </c>
       <c r="BQ218" t="inlineStr"/>
+      <c r="BR218" t="inlineStr">
+        <is>
+          <t>54821379</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -45950,6 +46456,11 @@
         </is>
       </c>
       <c r="BQ219" t="inlineStr"/>
+      <c r="BR219" t="inlineStr">
+        <is>
+          <t>2661328</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -46157,6 +46668,11 @@
         </is>
       </c>
       <c r="BQ220" t="inlineStr"/>
+      <c r="BR220" t="inlineStr">
+        <is>
+          <t>9135203</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -46372,6 +46888,7 @@
         </is>
       </c>
       <c r="BQ221" t="inlineStr"/>
+      <c r="BR221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -46583,6 +47100,11 @@
         </is>
       </c>
       <c r="BQ222" t="inlineStr"/>
+      <c r="BR222" t="inlineStr">
+        <is>
+          <t>4222701</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -46674,7 +47196,7 @@
       </c>
       <c r="AB223" t="inlineStr">
         <is>
-          <t> [401090]</t>
+          <t>[401090]</t>
         </is>
       </c>
       <c r="AC223" t="inlineStr">
@@ -46798,6 +47320,7 @@
         </is>
       </c>
       <c r="BQ223" t="inlineStr"/>
+      <c r="BR223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -47005,6 +47528,11 @@
         </is>
       </c>
       <c r="BQ224" t="inlineStr"/>
+      <c r="BR224" t="inlineStr">
+        <is>
+          <t>4094337</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -47204,6 +47732,7 @@
         </is>
       </c>
       <c r="BQ225" t="inlineStr"/>
+      <c r="BR225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -47421,6 +47950,7 @@
         </is>
       </c>
       <c r="BQ226" t="inlineStr"/>
+      <c r="BR226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -47620,6 +48150,7 @@
         </is>
       </c>
       <c r="BQ227" t="inlineStr"/>
+      <c r="BR227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -47827,6 +48358,7 @@
         </is>
       </c>
       <c r="BQ228" t="inlineStr"/>
+      <c r="BR228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -48030,6 +48562,7 @@
         </is>
       </c>
       <c r="BQ229" t="inlineStr"/>
+      <c r="BR229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -48241,6 +48774,7 @@
         </is>
       </c>
       <c r="BQ230" t="inlineStr"/>
+      <c r="BR230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -48448,6 +48982,7 @@
         </is>
       </c>
       <c r="BQ231" t="inlineStr"/>
+      <c r="BR231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -48651,6 +49186,7 @@
         </is>
       </c>
       <c r="BQ232" t="inlineStr"/>
+      <c r="BR232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -48850,6 +49386,7 @@
         </is>
       </c>
       <c r="BQ233" t="inlineStr"/>
+      <c r="BR233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -49061,6 +49598,7 @@
         </is>
       </c>
       <c r="BQ234" t="inlineStr"/>
+      <c r="BR234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -49276,6 +49814,7 @@
         </is>
       </c>
       <c r="BQ235" t="inlineStr"/>
+      <c r="BR235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -49495,6 +50034,7 @@
         </is>
       </c>
       <c r="BQ236" t="inlineStr"/>
+      <c r="BR236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -49690,6 +50230,7 @@
         </is>
       </c>
       <c r="BQ237" t="inlineStr"/>
+      <c r="BR237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -49897,6 +50438,7 @@
         </is>
       </c>
       <c r="BQ238" t="inlineStr"/>
+      <c r="BR238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -50096,6 +50638,7 @@
         </is>
       </c>
       <c r="BQ239" t="inlineStr"/>
+      <c r="BR239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -50307,6 +50850,11 @@
         </is>
       </c>
       <c r="BQ240" t="inlineStr"/>
+      <c r="BR240" t="inlineStr">
+        <is>
+          <t>4422529</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -50514,6 +51062,7 @@
         </is>
       </c>
       <c r="BQ241" t="inlineStr"/>
+      <c r="BR241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -50721,6 +51270,7 @@
         </is>
       </c>
       <c r="BQ242" t="inlineStr"/>
+      <c r="BR242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -50928,6 +51478,11 @@
         </is>
       </c>
       <c r="BQ243" t="inlineStr"/>
+      <c r="BR243" t="inlineStr">
+        <is>
+          <t>4356204</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -51131,6 +51686,7 @@
         </is>
       </c>
       <c r="BQ244" t="inlineStr"/>
+      <c r="BR244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -51342,6 +51898,7 @@
         </is>
       </c>
       <c r="BQ245" t="inlineStr"/>
+      <c r="BR245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -51545,6 +52102,7 @@
         </is>
       </c>
       <c r="BQ246" t="inlineStr"/>
+      <c r="BR246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -51748,6 +52306,7 @@
         </is>
       </c>
       <c r="BQ247" t="inlineStr"/>
+      <c r="BR247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -51947,6 +52506,7 @@
         </is>
       </c>
       <c r="BQ248" t="inlineStr"/>
+      <c r="BR248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -52150,6 +52710,7 @@
         </is>
       </c>
       <c r="BQ249" t="inlineStr"/>
+      <c r="BR249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -52365,6 +52926,7 @@
         </is>
       </c>
       <c r="BQ250" t="inlineStr"/>
+      <c r="BR250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -52580,6 +53142,7 @@
         </is>
       </c>
       <c r="BQ251" t="inlineStr"/>
+      <c r="BR251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -52795,6 +53358,7 @@
         </is>
       </c>
       <c r="BQ252" t="inlineStr"/>
+      <c r="BR252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -52994,6 +53558,7 @@
         </is>
       </c>
       <c r="BQ253" t="inlineStr"/>
+      <c r="BR253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -53197,6 +53762,7 @@
         </is>
       </c>
       <c r="BQ254" t="inlineStr"/>
+      <c r="BR254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -53400,6 +53966,7 @@
         </is>
       </c>
       <c r="BQ255" t="inlineStr"/>
+      <c r="BR255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -53615,6 +54182,11 @@
         </is>
       </c>
       <c r="BQ256" t="inlineStr"/>
+      <c r="BR256" t="inlineStr">
+        <is>
+          <t>4070740</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -53822,6 +54394,7 @@
         </is>
       </c>
       <c r="BQ257" t="inlineStr"/>
+      <c r="BR257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -54029,6 +54602,11 @@
         </is>
       </c>
       <c r="BQ258" t="inlineStr"/>
+      <c r="BR258" t="inlineStr">
+        <is>
+          <t>3849641</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -54232,6 +54810,7 @@
         </is>
       </c>
       <c r="BQ259" t="inlineStr"/>
+      <c r="BR259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -54439,6 +55018,7 @@
         </is>
       </c>
       <c r="BQ260" t="inlineStr"/>
+      <c r="BR260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -54634,6 +55214,7 @@
         </is>
       </c>
       <c r="BQ261" t="inlineStr"/>
+      <c r="BR261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -54825,6 +55406,7 @@
         </is>
       </c>
       <c r="BQ262" t="inlineStr"/>
+      <c r="BR262" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
